--- a/biology/Botanique/Pin_à_gros_cônes/Pin_à_gros_cônes.xlsx
+++ b/biology/Botanique/Pin_à_gros_cônes/Pin_à_gros_cônes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pin_%C3%A0_gros_c%C3%B4nes</t>
+          <t>Pin_à_gros_cônes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pinus coulteri
 Le pin à gros cônes (Pinus coulteri) dit aussi pin de Coulter, pin faiseur de veuves, pin des veuves est un arbre appartenant à la famille des Pinacées et au genre Pinus. Il est originaire du sud de la Californie (États-Unis), et du nord de la Basse-Californie (Mexique). Il est nommé ainsi en hommage à Thomas Coulter, un botaniste et physicien irlandais (1793-1843). C'est l'espèce de pin qui possède les cônes les plus lourds.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pin_%C3%A0_gros_c%C3%B4nes</t>
+          <t>Pin_à_gros_cônes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbre à feuilles persistantes qui peut atteindre une hauteur de 25 m, et 1 m de diamètre. Il vit sur les versants secs et rocheux des montagnes. Il a un port largement étalé, mais plutôt conique chez les jeunes sujets. Ses branches sont souvent ascendantes. Ses rameaux brun-violet sont robustes. Leur couleur s'éclaircit avec l'âge.
 Son écorce épaisse est pourpre-brun, écaillée, aux fissures profondes. Ses feuilles sont en forme d'aiguilles raides, très légèrement incurvées, longues de 15 à 30 cm. Elles sont de couleur verte à vert-gris, par faisceau de trois, mais parfois 4 ou 5, avec des stomates sur toutes les faces. Elles persistent 3 à 4 ans.
